--- a/res/stocks.xlsx
+++ b/res/stocks.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,10 +411,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>29.5</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>40.5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,7 +428,7 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>39.9</v>
+        <v>39.5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -439,7 +439,7 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>39</v>
@@ -453,10 +453,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>29.05</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -467,10 +467,10 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>28</v>
+        <v>28.4</v>
       </c>
       <c r="D6">
-        <v>39.1</v>
+        <v>38.7</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -481,10 +481,10 @@
         <v>3</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>28.6</v>
       </c>
       <c r="D7">
-        <v>39.05</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -495,10 +495,10 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>25.41</v>
+        <v>28.55</v>
       </c>
       <c r="D8">
-        <v>39.05</v>
+        <v>38.3</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -509,10 +509,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>25.32</v>
+        <v>28.5</v>
       </c>
       <c r="D9">
-        <v>38.51</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -523,10 +523,10 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>25.32</v>
+        <v>28.4</v>
       </c>
       <c r="D10">
-        <v>38.51</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -537,10 +537,10 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>25.15</v>
+        <v>28.4</v>
       </c>
       <c r="D11">
-        <v>38.1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -551,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <v>25.15</v>
+        <v>28.1</v>
       </c>
       <c r="D12">
-        <v>38.1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -565,10 +565,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>25.15</v>
+        <v>28.2</v>
       </c>
       <c r="D13">
-        <v>38.1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -579,10 +579,10 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>25.05</v>
+        <v>27.9</v>
       </c>
       <c r="D14">
-        <v>37.89</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -593,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>25.05</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>37.87</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -607,10 +607,10 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D16">
-        <v>37.87</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -621,10 +621,10 @@
         <v>1</v>
       </c>
       <c r="C17">
-        <v>25</v>
+        <v>28.2</v>
       </c>
       <c r="D17">
-        <v>37.7</v>
+        <v>37.05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -635,10 +635,10 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>28.3</v>
       </c>
       <c r="D18">
-        <v>37.6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -649,10 +649,10 @@
         <v>3</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>28.2</v>
       </c>
       <c r="D19">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -663,10 +663,10 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>24.6</v>
+        <v>28.2</v>
       </c>
       <c r="D20">
-        <v>37.2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -677,10 +677,10 @@
         <v>2</v>
       </c>
       <c r="C21">
-        <v>24.78</v>
+        <v>27.9</v>
       </c>
       <c r="D21">
-        <v>37.2</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -691,10 +691,10 @@
         <v>3</v>
       </c>
       <c r="C22">
-        <v>24.78</v>
+        <v>27.9</v>
       </c>
       <c r="D22">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -705,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>24.61</v>
+        <v>28</v>
       </c>
       <c r="D23">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -719,10 +719,10 @@
         <v>2</v>
       </c>
       <c r="C24">
-        <v>24.61</v>
+        <v>27.8</v>
       </c>
       <c r="D24">
-        <v>37.2</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -733,10 +733,10 @@
         <v>3</v>
       </c>
       <c r="C25">
-        <v>24.61</v>
+        <v>27.8</v>
       </c>
       <c r="D25">
-        <v>32.38</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -747,10 +747,10 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>24.2</v>
+        <v>27.2</v>
       </c>
       <c r="D26">
-        <v>32.38</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -761,10 +761,10 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>24.2</v>
+        <v>27.1</v>
       </c>
       <c r="D27">
-        <v>32.38</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -775,10 +775,10 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>24.2</v>
+        <v>27.1</v>
       </c>
       <c r="D28">
-        <v>32.38</v>
+        <v>36.15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -789,10 +789,10 @@
         <v>1</v>
       </c>
       <c r="C29">
-        <v>22.5</v>
+        <v>27.1</v>
       </c>
       <c r="D29">
-        <v>32.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -803,10 +803,10 @@
         <v>2</v>
       </c>
       <c r="C30">
-        <v>22.49</v>
+        <v>26.6</v>
       </c>
       <c r="D30">
-        <v>32.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -817,10 +817,10 @@
         <v>3</v>
       </c>
       <c r="C31">
-        <v>22.4</v>
+        <v>26.5</v>
       </c>
       <c r="D31">
-        <v>32.3</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -831,10 +831,10 @@
         <v>1</v>
       </c>
       <c r="C32">
-        <v>22.2</v>
+        <v>26</v>
       </c>
       <c r="D32">
-        <v>32.6</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -845,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="C33">
-        <v>21.9</v>
+        <v>26</v>
       </c>
       <c r="D33">
-        <v>32.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -859,10 +859,10 @@
         <v>3</v>
       </c>
       <c r="C34">
-        <v>21.9</v>
+        <v>26.5</v>
       </c>
       <c r="D34">
-        <v>32.4</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -873,10 +873,10 @@
         <v>1</v>
       </c>
       <c r="C35">
-        <v>21.8</v>
+        <v>26</v>
       </c>
       <c r="D35">
-        <v>32.4</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -887,10 +887,10 @@
         <v>2</v>
       </c>
       <c r="C36">
-        <v>21.6</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>32.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -901,10 +901,10 @@
         <v>3</v>
       </c>
       <c r="C37">
-        <v>21.3</v>
+        <v>25.5</v>
       </c>
       <c r="D37">
-        <v>32.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -915,10 +915,10 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>21.3</v>
+        <v>24.1</v>
       </c>
       <c r="D38">
-        <v>32.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -929,10 +929,10 @@
         <v>2</v>
       </c>
       <c r="C39">
-        <v>21.2</v>
+        <v>24</v>
       </c>
       <c r="D39">
-        <v>32.2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -943,10 +943,10 @@
         <v>3</v>
       </c>
       <c r="C40">
-        <v>21.1</v>
+        <v>24.1</v>
       </c>
       <c r="D40">
-        <v>32.1</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -957,10 +957,10 @@
         <v>1</v>
       </c>
       <c r="C41">
-        <v>20.8</v>
+        <v>24.1</v>
       </c>
       <c r="D41">
-        <v>31.6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -971,10 +971,10 @@
         <v>2</v>
       </c>
       <c r="C42">
-        <v>20.5</v>
+        <v>23.7</v>
       </c>
       <c r="D42">
-        <v>31.5</v>
+        <v>35.6</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -985,10 +985,10 @@
         <v>3</v>
       </c>
       <c r="C43">
-        <v>20.7</v>
+        <v>23</v>
       </c>
       <c r="D43">
-        <v>31.4</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -999,10 +999,10 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>20.7</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>31.4</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1013,10 +1013,10 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>20.6</v>
+        <v>22.6</v>
       </c>
       <c r="D45">
-        <v>30.6</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1027,10 +1027,10 @@
         <v>3</v>
       </c>
       <c r="C46">
-        <v>20.6</v>
+        <v>22.6</v>
       </c>
       <c r="D46">
-        <v>30.4</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1041,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="C47">
-        <v>20.1</v>
+        <v>22.3</v>
       </c>
       <c r="D47">
-        <v>29.7</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1055,10 +1055,10 @@
         <v>2</v>
       </c>
       <c r="C48">
-        <v>20.1</v>
+        <v>22.6</v>
       </c>
       <c r="D48">
-        <v>29.1</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1069,10 +1069,10 @@
         <v>3</v>
       </c>
       <c r="C49">
-        <v>20.2</v>
+        <v>22.4</v>
       </c>
       <c r="D49">
-        <v>29.1</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1083,10 +1083,10 @@
         <v>1</v>
       </c>
       <c r="C50">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="D50">
-        <v>29.2</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1097,10 +1097,10 @@
         <v>2</v>
       </c>
       <c r="C51">
-        <v>20.5</v>
+        <v>22.3</v>
       </c>
       <c r="D51">
-        <v>29.3</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1111,10 +1111,10 @@
         <v>3</v>
       </c>
       <c r="C52">
-        <v>19.9</v>
+        <v>22.3</v>
       </c>
       <c r="D52">
-        <v>29.4</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="C53">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="D53">
-        <v>28.3</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1139,10 +1139,10 @@
         <v>2</v>
       </c>
       <c r="C54">
-        <v>19.9</v>
+        <v>22.2</v>
       </c>
       <c r="D54">
-        <v>27.3</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1153,10 +1153,10 @@
         <v>3</v>
       </c>
       <c r="C55">
-        <v>19.9</v>
+        <v>21</v>
       </c>
       <c r="D55">
-        <v>27.3</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1167,10 +1167,10 @@
         <v>1</v>
       </c>
       <c r="C56">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="D56">
-        <v>27.1</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1181,10 +1181,10 @@
         <v>2</v>
       </c>
       <c r="C57">
-        <v>19</v>
+        <v>20.9</v>
       </c>
       <c r="D57">
-        <v>27.05</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1195,10 +1195,10 @@
         <v>3</v>
       </c>
       <c r="C58">
-        <v>19.1</v>
+        <v>20.9</v>
       </c>
       <c r="D58">
-        <v>27.05</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1209,10 +1209,10 @@
         <v>1</v>
       </c>
       <c r="C59">
-        <v>18.6</v>
+        <v>23.9</v>
       </c>
       <c r="D59">
-        <v>26.8</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1223,10 +1223,10 @@
         <v>2</v>
       </c>
       <c r="C60">
-        <v>18.6</v>
+        <v>23.9</v>
       </c>
       <c r="D60">
-        <v>26.7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1237,10 +1237,10 @@
         <v>3</v>
       </c>
       <c r="C61">
-        <v>18.5</v>
+        <v>23.9</v>
       </c>
       <c r="D61">
-        <v>26.7</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -1251,10 +1251,10 @@
         <v>1</v>
       </c>
       <c r="C62">
-        <v>18.4</v>
+        <v>23.8</v>
       </c>
       <c r="D62">
-        <v>26.3</v>
+        <v>33.9</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -1265,10 +1265,10 @@
         <v>2</v>
       </c>
       <c r="C63">
-        <v>18.4</v>
+        <v>23.5</v>
       </c>
       <c r="D63">
-        <v>26.3</v>
+        <v>33.3</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -1279,10 +1279,934 @@
         <v>3</v>
       </c>
       <c r="C64">
-        <v>18.4</v>
+        <v>23.4</v>
       </c>
       <c r="D64">
-        <v>24.5</v>
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>23.3</v>
+      </c>
+      <c r="D65">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>23.38</v>
+      </c>
+      <c r="D66">
+        <v>33.35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>23.35</v>
+      </c>
+      <c r="D67">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
+        <v>23</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>23.4</v>
+      </c>
+      <c r="D68">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>23</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>23.4</v>
+      </c>
+      <c r="D69">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>23</v>
+      </c>
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>23.3</v>
+      </c>
+      <c r="D70">
+        <v>33.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>23.1</v>
+      </c>
+      <c r="D71">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>23</v>
+      </c>
+      <c r="D72">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="B73">
+        <v>3</v>
+      </c>
+      <c r="C73">
+        <v>23.1</v>
+      </c>
+      <c r="D73">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>23</v>
+      </c>
+      <c r="D74">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>22.3</v>
+      </c>
+      <c r="D75">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>3</v>
+      </c>
+      <c r="C76">
+        <v>22.5</v>
+      </c>
+      <c r="D76">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>26</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>25.4</v>
+      </c>
+      <c r="D77">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>26</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>23.5</v>
+      </c>
+      <c r="D78">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>26</v>
+      </c>
+      <c r="B79">
+        <v>3</v>
+      </c>
+      <c r="C79">
+        <v>24.9</v>
+      </c>
+      <c r="D79">
+        <v>34.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>27</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>24.9</v>
+      </c>
+      <c r="D80">
+        <v>35.2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>27</v>
+      </c>
+      <c r="B81">
+        <v>2</v>
+      </c>
+      <c r="C81">
+        <v>24.9</v>
+      </c>
+      <c r="D81">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>27</v>
+      </c>
+      <c r="B82">
+        <v>3</v>
+      </c>
+      <c r="C82">
+        <v>24.8</v>
+      </c>
+      <c r="D82">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
+        <v>28</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>24.7</v>
+      </c>
+      <c r="D83">
+        <v>34.7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
+        <v>28</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>24.8</v>
+      </c>
+      <c r="D84">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
+        <v>28</v>
+      </c>
+      <c r="B85">
+        <v>3</v>
+      </c>
+      <c r="C85">
+        <v>24.7</v>
+      </c>
+      <c r="D85">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
+        <v>29</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>24.7</v>
+      </c>
+      <c r="D86">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
+        <v>29</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87">
+        <v>23.3</v>
+      </c>
+      <c r="D87">
+        <v>34.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>29</v>
+      </c>
+      <c r="B88">
+        <v>3</v>
+      </c>
+      <c r="C88">
+        <v>24.2</v>
+      </c>
+      <c r="D88">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>30</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>24.2</v>
+      </c>
+      <c r="D89">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
+        <v>30</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>24.2</v>
+      </c>
+      <c r="D90">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>24.1</v>
+      </c>
+      <c r="D91">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
+        <v>31</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>22</v>
+      </c>
+      <c r="D92">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>31</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>22</v>
+      </c>
+      <c r="D93">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>31</v>
+      </c>
+      <c r="B94">
+        <v>3</v>
+      </c>
+      <c r="C94">
+        <v>21.5</v>
+      </c>
+      <c r="D94">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>32</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>21</v>
+      </c>
+      <c r="D95">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>32</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>21</v>
+      </c>
+      <c r="D96">
+        <v>34.3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
+        <v>32</v>
+      </c>
+      <c r="B97">
+        <v>3</v>
+      </c>
+      <c r="C97">
+        <v>21</v>
+      </c>
+      <c r="D97">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>33</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>21.2</v>
+      </c>
+      <c r="D98">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>33</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>21</v>
+      </c>
+      <c r="D99">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>33</v>
+      </c>
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>20.9</v>
+      </c>
+      <c r="D100">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>34</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
+        <v>21</v>
+      </c>
+      <c r="D101">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
+        <v>34</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>21</v>
+      </c>
+      <c r="D102">
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>34</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>21</v>
+      </c>
+      <c r="D103">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>35</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
+        <v>20.8</v>
+      </c>
+      <c r="D104">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>35</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>21</v>
+      </c>
+      <c r="D105">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>35</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>20.7</v>
+      </c>
+      <c r="D106">
+        <v>33.8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
+        <v>36</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>20.5</v>
+      </c>
+      <c r="D107">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>36</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>20</v>
+      </c>
+      <c r="D108">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>36</v>
+      </c>
+      <c r="B109">
+        <v>3</v>
+      </c>
+      <c r="C109">
+        <v>19.9</v>
+      </c>
+      <c r="D109">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>37</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>19.5</v>
+      </c>
+      <c r="D110">
+        <v>33.4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>37</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>19</v>
+      </c>
+      <c r="D111">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>37</v>
+      </c>
+      <c r="B112">
+        <v>3</v>
+      </c>
+      <c r="C112">
+        <v>19.2</v>
+      </c>
+      <c r="D112">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>38</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>19.2</v>
+      </c>
+      <c r="D113">
+        <v>33.1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>38</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>18.9</v>
+      </c>
+      <c r="D114">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>38</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>18.9</v>
+      </c>
+      <c r="D115">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>39</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>19</v>
+      </c>
+      <c r="D116">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>39</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>19.3</v>
+      </c>
+      <c r="D117">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>3</v>
+      </c>
+      <c r="C118">
+        <v>19.2</v>
+      </c>
+      <c r="D118">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>40</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>19.1</v>
+      </c>
+      <c r="D119">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
+        <v>40</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>18.9</v>
+      </c>
+      <c r="D120">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>40</v>
+      </c>
+      <c r="B121">
+        <v>3</v>
+      </c>
+      <c r="C121">
+        <v>18.9</v>
+      </c>
+      <c r="D121">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>41</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>18.9</v>
+      </c>
+      <c r="D122">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>41</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>18.7</v>
+      </c>
+      <c r="D123">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>41</v>
+      </c>
+      <c r="B124">
+        <v>3</v>
+      </c>
+      <c r="C124">
+        <v>18.5</v>
+      </c>
+      <c r="D124">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>42</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>18.1</v>
+      </c>
+      <c r="D125">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>42</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
+        <v>18.6</v>
+      </c>
+      <c r="D126">
+        <v>32.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
+        <v>42</v>
+      </c>
+      <c r="B127">
+        <v>3</v>
+      </c>
+      <c r="C127">
+        <v>18.1</v>
+      </c>
+      <c r="D127">
+        <v>32.399</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>43</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>18</v>
+      </c>
+      <c r="D128">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>43</v>
+      </c>
+      <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
+        <v>18.1</v>
+      </c>
+      <c r="D129">
+        <v>32.1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
+        <v>43</v>
+      </c>
+      <c r="B130">
+        <v>3</v>
+      </c>
+      <c r="C130">
+        <v>18.1</v>
+      </c>
+      <c r="D130">
+        <v>32.1</v>
       </c>
     </row>
   </sheetData>
